--- a/GSports/5W2H.xlsx
+++ b/GSports/5W2H.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\GSports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A36EA-DA9B-4F77-8FCF-DC2E9BA06E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063239C2-1FE6-4D40-A27A-C6FF77BE3985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{E978803C-E01E-4043-9E84-613D9AFD8C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E978803C-E01E-4043-9E84-613D9AFD8C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>why</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Produtos</t>
-  </si>
-  <si>
-    <t>Carrinhos</t>
   </si>
   <si>
     <t>Contato</t>
@@ -193,7 +190,31 @@
     <t>Pagina onde o cliente efetuara a criação da conta</t>
   </si>
   <si>
-    <t>Utilizando o Vscode</t>
+    <t>Carrinho</t>
+  </si>
+  <si>
+    <t>A programação será feita com o VsCode, utilizando as linguagens HTML e CSS. Analizaremos o melhor design para fazer uma página inicial prática e simples de usar, na qual o cliente possa navegar com facilidade e conforto por todo o site</t>
+  </si>
+  <si>
+    <t>A programação será feita com o VsCode, utilizando as linguagens HTML e CSS. Juntaremos as informações sobre o histórico da empresa e ao mesmo tempo apontaremos nossa missão, visão e nossos valores. Apontaresmos também nossa política de uso.</t>
+  </si>
+  <si>
+    <t>A programação será feita com o VsCode, utilizando as linguagens HTML e CSS. Selecionaremos os produtos disponíveis para venda e deixaremos em exposição na página de produtos</t>
+  </si>
+  <si>
+    <t>A programação será feita com o VsCode, utilizando as linguagens HTML e CSS. Mostraremos os produtos selecionados pelo cliente para finalizar a compra.</t>
+  </si>
+  <si>
+    <t>A programação será feita com o VsCode, utilizando as linguagens HTML e CSS. Será colocado um formulário, a partir do qual serão colocados os dados do cliente e a descrição do problema.</t>
+  </si>
+  <si>
+    <t>A programação será feita com o VsCode, utilizando as linguagens HTML e CSS. Juntaremos as informações dadas pelo cliente para criar o seu perfil no site.</t>
+  </si>
+  <si>
+    <t>A programação será feita com o VsCode, utilizando as linguagens HTML e CSS. A págona será feita a partir de um formulário, no qual o cliente informa o email de sua conta e sua senha.</t>
+  </si>
+  <si>
+    <t>A programação será feita com o VsCode, utilizando as linguagens HTML e CSS. A página será feito a partir de um formulário, na qual o cliente deve colocar suas informações para a criação de uma conta no site.</t>
   </si>
 </sst>
 </file>
@@ -346,7 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -366,21 +387,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,8 +428,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -744,9 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12475CC-653E-457A-80FE-340158CD8393}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +778,7 @@
     <col min="1" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -777,7 +801,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -786,295 +810,295 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="E14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="E15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="E16" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
